--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_12_33.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_12_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2860257.905340053</v>
+        <v>2857881.278392687</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283181</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8775458.314079003</v>
+        <v>8775458.314079</v>
       </c>
     </row>
     <row r="11">
@@ -662,22 +662,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>262.9174924038273</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,19 +713,19 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>120.2145230749714</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>39.15797524740199</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -826,10 +826,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>119.7916914332919</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
@@ -871,16 +871,16 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>330.824100083382</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>115.653228379492</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,19 +947,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>102.3552971785073</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>10.24924571897636</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1139,7 +1139,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>41.00930247648588</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1148,10 +1148,10 @@
         <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624053</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247038</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>70.10115029311056</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
@@ -1227,10 +1227,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83156789269624</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705009</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1291,25 +1291,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>50.16463037378295</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>144.8586974472238</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>75.08886905994719</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>126.4418041083148</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1658,7 +1658,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1768,19 +1768,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1825,13 +1825,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>188.4343500806758</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>136.5667167289884</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>141.6930519056948</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,19 +2245,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>53.11937003877868</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,19 +2284,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>30.87238256912069</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,19 +2473,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>193.2084057288016</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.733841663483</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,13 +2716,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>99.01360035611904</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>246.2025596887056</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695761</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>23.62554568141315</v>
       </c>
       <c r="F31" t="n">
-        <v>89.67992556049255</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3041,10 +3041,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444161</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>45.66054613217701</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>25.52471385612682</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="F37" t="n">
-        <v>53.3007612348493</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3512,10 +3512,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417126</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,16 +3661,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046975</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3679,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>64.91921363453702</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3904,10 +3904,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>11.81332727248968</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,25 +4135,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>143.7533552439565</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>42.71572132711237</v>
       </c>
       <c r="I46" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>394.8580066177523</v>
+        <v>1136.221880202098</v>
       </c>
       <c r="C2" t="n">
-        <v>394.8580066177523</v>
+        <v>1136.221880202098</v>
       </c>
       <c r="D2" t="n">
-        <v>394.8580066177523</v>
+        <v>777.9561815953474</v>
       </c>
       <c r="E2" t="n">
-        <v>394.8580066177523</v>
+        <v>777.9561815953474</v>
       </c>
       <c r="F2" t="n">
-        <v>129.2847819674217</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4361,19 +4361,19 @@
         <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2228.894479532451</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>1897.83159218888</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1545.062936918766</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X2" t="n">
-        <v>1171.597178657686</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="Y2" t="n">
-        <v>781.4578466818741</v>
+        <v>1522.82172026622</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057915</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
@@ -4410,16 +4410,16 @@
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310614</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>607.1380332666176</v>
+        <v>662.3527266874014</v>
       </c>
       <c r="M3" t="n">
-        <v>970.4000522258377</v>
+        <v>1025.614745646621</v>
       </c>
       <c r="N3" t="n">
-        <v>1357.685180822783</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O3" t="n">
         <v>1991.864164601822</v>
@@ -4446,10 +4446,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>807.2008757008369</v>
+        <v>535.7199774115534</v>
       </c>
       <c r="C4" t="n">
-        <v>638.2646927729301</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D4" t="n">
-        <v>488.1480533605943</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E4" t="n">
-        <v>340.2349597782012</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F4" t="n">
-        <v>219.2332512597245</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
         <v>51.24678656800311</v>
@@ -4486,16 +4486,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4510,28 +4510,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1439.817372234359</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1216.838891429094</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1216.838891429094</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V4" t="n">
-        <v>1216.838891429094</v>
+        <v>825.137147448514</v>
       </c>
       <c r="W4" t="n">
-        <v>1216.838891429094</v>
+        <v>535.7199774115534</v>
       </c>
       <c r="X4" t="n">
-        <v>988.8493405310767</v>
+        <v>535.7199774115534</v>
       </c>
       <c r="Y4" t="n">
-        <v>988.8493405310767</v>
+        <v>535.7199774115534</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2022.53079966241</v>
+        <v>864.8611267254482</v>
       </c>
       <c r="C5" t="n">
-        <v>1688.365042002428</v>
+        <v>864.8611267254482</v>
       </c>
       <c r="D5" t="n">
-        <v>1330.099343395678</v>
+        <v>864.8611267254482</v>
       </c>
       <c r="E5" t="n">
-        <v>944.3110907974335</v>
+        <v>479.072874127204</v>
       </c>
       <c r="F5" t="n">
-        <v>533.3251860078259</v>
+        <v>472.1273733780005</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
         <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872924</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2353.593687005981</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2353.593687005981</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V5" t="n">
-        <v>2022.53079966241</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="W5" t="n">
-        <v>2022.53079966241</v>
+        <v>1624.92672505065</v>
       </c>
       <c r="X5" t="n">
-        <v>2022.53079966241</v>
+        <v>1251.46096678957</v>
       </c>
       <c r="Y5" t="n">
-        <v>2022.53079966241</v>
+        <v>1251.46096678957</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
         <v>113.5972052500114</v>
@@ -4656,16 +4656,16 @@
         <v>956.2844025217532</v>
       </c>
       <c r="N6" t="n">
-        <v>1343.569531118698</v>
+        <v>1565.661695681274</v>
       </c>
       <c r="O6" t="n">
-        <v>1675.63996629486</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
-        <v>2238.100841080695</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
-        <v>2561.393271046732</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>538.2860735999672</v>
+        <v>359.6292930162434</v>
       </c>
       <c r="C7" t="n">
-        <v>369.3498906720603</v>
+        <v>359.6292930162434</v>
       </c>
       <c r="D7" t="n">
-        <v>219.2332512597245</v>
+        <v>209.5126536039077</v>
       </c>
       <c r="E7" t="n">
-        <v>219.2332512597245</v>
+        <v>61.59956002151458</v>
       </c>
       <c r="F7" t="n">
-        <v>219.2332512597245</v>
+        <v>61.59956002151458</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800313</v>
+        <v>61.59956002151458</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800313</v>
+        <v>61.59956002151458</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312202</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020476</v>
@@ -4747,28 +4747,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T7" t="n">
-        <v>1413.467639269233</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="U7" t="n">
-        <v>1124.349301773071</v>
+        <v>1244.744376093917</v>
       </c>
       <c r="V7" t="n">
-        <v>869.6648135671838</v>
+        <v>990.0598878880306</v>
       </c>
       <c r="W7" t="n">
-        <v>869.6648135671838</v>
+        <v>990.0598878880306</v>
       </c>
       <c r="X7" t="n">
-        <v>641.6752626691665</v>
+        <v>762.0703369900133</v>
       </c>
       <c r="Y7" t="n">
-        <v>641.6752626691665</v>
+        <v>541.2777578464832</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1167.517642266217</v>
+        <v>904.8820361188236</v>
       </c>
       <c r="C8" t="n">
-        <v>798.5551253258053</v>
+        <v>535.919519178412</v>
       </c>
       <c r="D8" t="n">
-        <v>440.2894267190548</v>
+        <v>177.6538205716615</v>
       </c>
       <c r="E8" t="n">
-        <v>440.2894267190548</v>
+        <v>136.2302827166252</v>
       </c>
       <c r="F8" t="n">
-        <v>433.3439259698513</v>
+        <v>129.2847819674218</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345443</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800315</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.528182236282</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816087</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740842</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764999</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723853</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400158</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2491.530085679844</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2491.530085679844</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U8" t="n">
-        <v>2237.949024944024</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V8" t="n">
-        <v>1906.886137600453</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W8" t="n">
-        <v>1554.117482330339</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X8" t="n">
-        <v>1554.117482330339</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="Y8" t="n">
-        <v>1554.117482330339</v>
+        <v>1291.481876182945</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4857,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H9" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800315</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500115</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310617</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>932.4978103101007</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M9" t="n">
-        <v>1295.759829269321</v>
+        <v>1227.201367341571</v>
       </c>
       <c r="N9" t="n">
-        <v>1683.044957866266</v>
+        <v>1614.486495938516</v>
       </c>
       <c r="O9" t="n">
-        <v>2015.115393042428</v>
+        <v>1946.556931114678</v>
       </c>
       <c r="P9" t="n">
-        <v>2262.298126874726</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4914,16 +4914,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1087.683159487371</v>
+        <v>101.9181303799051</v>
       </c>
       <c r="C10" t="n">
-        <v>918.7469765594642</v>
+        <v>101.9181303799051</v>
       </c>
       <c r="D10" t="n">
-        <v>768.6303371471284</v>
+        <v>101.9181303799051</v>
       </c>
       <c r="E10" t="n">
-        <v>620.7172435647353</v>
+        <v>101.9181303799051</v>
       </c>
       <c r="F10" t="n">
-        <v>473.8272960668249</v>
+        <v>101.9181303799051</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800315</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.7159595531221</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020478</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693238</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096592</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999036</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171025</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074498</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074498</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074498</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074498</v>
+        <v>1021.765895288653</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074498</v>
+        <v>1021.765895288653</v>
       </c>
       <c r="W10" t="n">
-        <v>1636.446120074498</v>
+        <v>732.3487252516923</v>
       </c>
       <c r="X10" t="n">
-        <v>1490.124203461141</v>
+        <v>504.3591743536749</v>
       </c>
       <c r="Y10" t="n">
-        <v>1269.331624317611</v>
+        <v>283.5665952101448</v>
       </c>
     </row>
     <row r="11">
@@ -5030,34 +5030,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5121,25 +5121,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637307</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>923.4916164683283</v>
       </c>
       <c r="C13" t="n">
-        <v>847.644273983533</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711973</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
@@ -5197,13 +5197,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5215,34 +5215,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2252.19838578386</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2252.19838578386</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1963.123159128057</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1708.43867092217</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1419.02150088521</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1419.02150088521</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y13" t="n">
-        <v>1198.22892174168</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="14">
@@ -5273,28 +5273,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5355,28 +5355,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5461,25 +5461,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1426.218472639697</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1198.22892174168</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5495,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,16 +5510,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111695</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
@@ -5528,7 +5528,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5592,25 +5592,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637308</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890283</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.11872044489</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>557.5558870561822</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C19" t="n">
-        <v>388.6197041282753</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282753</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458822</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5729,46 +5729,46 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852256</v>
@@ -5780,10 +5780,10 @@
         <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,22 +5823,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273908</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516145</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L21" t="n">
-        <v>579.1554649516145</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438167</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
         <v>1307.627092998424</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>956.9553291057244</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>788.0191461778176</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D22" t="n">
-        <v>637.9025067654818</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E22" t="n">
-        <v>489.9894131830887</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>229.5592957321579</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1907.987318831766</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332388</v>
@@ -6002,10 +6002,10 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852255</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6063,25 +6063,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>840.8417932021787</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N24" t="n">
-        <v>1468.439756756786</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2020.349486996073</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
         <v>2283.159972732779</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>789.7592298206043</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>620.8230468926974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>470.7064074803617</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>322.7933138979686</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1238.541359862152</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1010.551808964134</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>789.7592298206043</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,22 +6212,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192608</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332388</v>
@@ -6242,34 +6242,34 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6297,31 +6297,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756267</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468473</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M27" t="n">
-        <v>1072.713683962606</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N27" t="n">
-        <v>1540.888753373306</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612593</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>633.4413279836774</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C28" t="n">
-        <v>464.5051450557705</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D28" t="n">
-        <v>464.5051450557705</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E28" t="n">
-        <v>464.5051450557705</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6391,7 +6391,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
         <v>1665.560112570818</v>
@@ -6400,34 +6400,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
         <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2097.048807754114</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1807.973581098312</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1553.289092892425</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1263.871922855465</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X28" t="n">
-        <v>1035.882371957447</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y28" t="n">
-        <v>815.0897928139171</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="29">
@@ -6452,40 +6452,40 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797193</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
         <v>4606.285157492578</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,31 +6534,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797193</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756267</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468473</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1465.200520057987</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2092.798483612593</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612593</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>733.455065717131</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>564.5188827892241</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D31" t="n">
-        <v>414.4022433768884</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E31" t="n">
-        <v>266.4891497944952</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F31" t="n">
-        <v>175.9033664000583</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782958</v>
@@ -6628,7 +6628,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
         <v>1665.560112570818</v>
@@ -6637,34 +6637,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
         <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1907.987318831766</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1653.302830625879</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1363.885660588918</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1135.896109690901</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>915.1035305473707</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611466</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004716</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406472</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168638</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G32" t="n">
-        <v>379.830887436271</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852259</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6771,28 +6771,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468473</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
         <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1231.938859683104</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N33" t="n">
-        <v>1859.536823237711</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2252.2213777565</v>
       </c>
       <c r="P33" t="n">
         <v>2283.159972732779</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>733.455065717131</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>564.5188827892241</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D34" t="n">
-        <v>414.4022433768884</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E34" t="n">
-        <v>266.4891497944952</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="F34" t="n">
-        <v>119.5992022965849</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="G34" t="n">
-        <v>119.5992022965849</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>119.5992022965849</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782958</v>
@@ -6865,7 +6865,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
         <v>1665.560112570818</v>
@@ -6874,34 +6874,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
         <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1907.987318831766</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1653.302830625879</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1363.885660588918</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1135.896109690901</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>915.1035305473707</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6929,40 +6929,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192383</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111695</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K35" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
         <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="L36" t="n">
-        <v>740.5562989961527</v>
+        <v>590.9096564684978</v>
       </c>
       <c r="M36" t="n">
-        <v>1337.934786622705</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N36" t="n">
-        <v>1965.532750177312</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>696.708435085168</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>527.7722521572612</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>377.6556127449254</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>229.7425191625323</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F37" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782958</v>
@@ -7102,7 +7102,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
         <v>1665.560112570818</v>
@@ -7111,34 +7111,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832664</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2160.315914855605</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1871.240688199803</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1616.556199993916</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1327.139029956955</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1099.149479058938</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>878.3568999154078</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7151,13 +7151,13 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
@@ -7166,55 +7166,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,31 +7245,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468473</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>913.2907898186992</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M39" t="n">
-        <v>913.2907898186992</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
-        <v>1540.888753373306</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612593</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>788.0191461778176</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D40" t="n">
-        <v>637.9025067654818</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
-        <v>489.9894131830887</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782958</v>
@@ -7339,7 +7339,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
         <v>1665.560112570818</v>
@@ -7348,34 +7348,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
         <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>2131.487582220359</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7400,31 +7400,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111695</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,28 +7485,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468473</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>789.7592298206043</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>620.8230468926974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>470.7064074803617</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>322.7933138979686</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2435.030429769666</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2252.17559542457</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2032.574130447511</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1743.498903791709</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1488.814415585822</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1199.397245548862</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>971.4076946508441</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>971.4076946508441</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7634,25 +7634,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014778</v>
@@ -7722,28 +7722,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273906</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>429.5088224239598</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>739.5354516872154</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.913939313768</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N45" t="n">
-        <v>1964.511902868375</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>954.2476448606611</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>785.3114619327542</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D46" t="n">
-        <v>635.1948225204185</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E46" t="n">
-        <v>489.9894131830887</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F46" t="n">
-        <v>343.0994656851783</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000582</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1907.987318831766</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1653.302830625879</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1363.885660588918</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1135.896109690901</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1135.896109690901</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8061,16 +8061,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>14.25823202432775</v>
+        <v>70.03064962107925</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>249.387732507165</v>
       </c>
       <c r="O3" t="n">
-        <v>305.1601501039158</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8079,7 +8079,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8304,19 +8304,19 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>224.3355197601769</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>305.1601501039157</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>21.89339468985633</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8535,10 +8535,10 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>342.904471462189</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>273.6534998179984</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>255.8421700460953</v>
       </c>
       <c r="Q9" t="n">
-        <v>186.591198401902</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154981</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>-1.189907540806488e-12</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9656,7 +9656,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>-1.637841752077283e-12</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>92.15795203868065</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,10 +23464,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>54.58448189332977</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23656,19 +23656,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>98.08864825591516</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>43.26526345294894</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>6.922421112517554</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,13 +24133,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>112.4047682534902</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -24178,13 +24178,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>221.2652607547073</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24361,19 +24361,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -24382,7 +24382,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>93.31459260778939</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24604,13 +24604,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>118.3918499711692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>40.32043864788537</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,19 +24838,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>122.808416965156</v>
       </c>
       <c r="F31" t="n">
-        <v>55.7411224624387</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>119.8635921600918</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>55.74112246243869</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,7 +25126,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>38.13892827624207</v>
       </c>
       <c r="F37" t="n">
-        <v>92.12028678808196</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25549,16 +25549,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>65.5498640939303</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,10 +25600,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>221.2652607547071</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25792,10 +25792,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -25804,7 +25804,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>54.56191943763196</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26023,22 +26023,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>2.680607402612679</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>97.57899151911153</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26074,7 +26074,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>773913.277705895</v>
+        <v>773913.2777058951</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>773913.277705895</v>
+        <v>773913.2777058951</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>753929.9322934035</v>
+        <v>753929.9322934033</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>753929.9322934034</v>
+        <v>753929.9322934035</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>753929.9322934035</v>
+        <v>753929.9322934033</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>753929.9322934035</v>
+        <v>753929.9322934034</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>753929.9322934035</v>
+        <v>753929.9322934034</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>753929.9322934035</v>
+        <v>753929.9322934034</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>753929.9322934035</v>
+        <v>753929.9322934034</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>677359.4601380338</v>
+      </c>
+      <c r="C2" t="n">
         <v>677359.4601380341</v>
       </c>
-      <c r="C2" t="n">
-        <v>677359.4601380337</v>
-      </c>
       <c r="D2" t="n">
-        <v>677359.4601380342</v>
+        <v>677359.4601380338</v>
       </c>
       <c r="E2" t="n">
-        <v>665895.9447442553</v>
+        <v>665895.944744255</v>
       </c>
       <c r="F2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442552</v>
       </c>
       <c r="G2" t="n">
-        <v>665895.9447442552</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="H2" t="n">
         <v>665895.9447442549</v>
       </c>
       <c r="I2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="J2" t="n">
         <v>665895.944744255</v>
       </c>
       <c r="K2" t="n">
+        <v>665895.9447442552</v>
+      </c>
+      <c r="L2" t="n">
+        <v>665895.9447442554</v>
+      </c>
+      <c r="M2" t="n">
         <v>665895.944744255</v>
       </c>
-      <c r="L2" t="n">
-        <v>665895.9447442553</v>
-      </c>
-      <c r="M2" t="n">
-        <v>665895.9447442553</v>
-      </c>
       <c r="N2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442552</v>
       </c>
       <c r="O2" t="n">
-        <v>665895.9447442553</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="P2" t="n">
-        <v>665895.9447442552</v>
+        <v>665895.9447442548</v>
       </c>
     </row>
     <row r="3">
@@ -26369,16 +26369,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.894519977620803e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245453</v>
+        <v>507485.4416245458</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.535601535986644e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099828</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>6.75784945244608e-11</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289264</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,40 +26418,40 @@
         <v>134318.0002618637</v>
       </c>
       <c r="C4" t="n">
+        <v>134318.0002618638</v>
+      </c>
+      <c r="D4" t="n">
         <v>134318.0002618637</v>
-      </c>
-      <c r="D4" t="n">
-        <v>134318.0002618636</v>
       </c>
       <c r="E4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="F4" t="n">
-        <v>8117.312426731958</v>
+        <v>8117.312426731966</v>
       </c>
       <c r="G4" t="n">
-        <v>8117.31242673192</v>
+        <v>8117.312426731998</v>
       </c>
       <c r="H4" t="n">
+        <v>8117.312426731974</v>
+      </c>
+      <c r="I4" t="n">
+        <v>8117.312426731974</v>
+      </c>
+      <c r="J4" t="n">
+        <v>8117.312426731956</v>
+      </c>
+      <c r="K4" t="n">
+        <v>8117.312426731974</v>
+      </c>
+      <c r="L4" t="n">
+        <v>8117.312426731925</v>
+      </c>
+      <c r="M4" t="n">
         <v>8117.312426731918</v>
       </c>
-      <c r="I4" t="n">
-        <v>8117.312426731927</v>
-      </c>
-      <c r="J4" t="n">
-        <v>8117.312426731862</v>
-      </c>
-      <c r="K4" t="n">
-        <v>8117.312426731867</v>
-      </c>
-      <c r="L4" t="n">
-        <v>8117.312426731867</v>
-      </c>
-      <c r="M4" t="n">
-        <v>8117.312426731986</v>
-      </c>
       <c r="N4" t="n">
-        <v>8117.312426731975</v>
+        <v>8117.312426731924</v>
       </c>
       <c r="O4" t="n">
         <v>8117.312426731974</v>
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984476</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26497,7 +26497,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
         <v>101122.5298239071</v>
@@ -26522,46 +26522,46 @@
         <v>-664648.0961395942</v>
       </c>
       <c r="C6" t="n">
-        <v>450103.6874363253</v>
+        <v>450103.6874363257</v>
       </c>
       <c r="D6" t="n">
         <v>450103.6874363255</v>
       </c>
       <c r="E6" t="n">
-        <v>49170.66086907087</v>
+        <v>49135.92294363448</v>
       </c>
       <c r="F6" t="n">
-        <v>556656.1024936163</v>
+        <v>556621.3645681805</v>
       </c>
       <c r="G6" t="n">
-        <v>556656.1024936158</v>
+        <v>556621.3645681802</v>
       </c>
       <c r="H6" t="n">
-        <v>556656.1024936158</v>
+        <v>556621.3645681803</v>
       </c>
       <c r="I6" t="n">
-        <v>556656.1024936161</v>
+        <v>556621.3645681803</v>
       </c>
       <c r="J6" t="n">
-        <v>389050.9246836334</v>
+        <v>389016.1867581974</v>
       </c>
       <c r="K6" t="n">
-        <v>556656.1024936159</v>
+        <v>556621.3645681805</v>
       </c>
       <c r="L6" t="n">
-        <v>556656.1024936161</v>
+        <v>556621.3645681806</v>
       </c>
       <c r="M6" t="n">
-        <v>424048.8087646898</v>
+        <v>424014.0708392536</v>
       </c>
       <c r="N6" t="n">
-        <v>556656.1024936161</v>
+        <v>556621.3645681804</v>
       </c>
       <c r="O6" t="n">
-        <v>556656.1024936163</v>
+        <v>556621.3645681804</v>
       </c>
       <c r="P6" t="n">
-        <v>556656.1024936161</v>
+        <v>556621.3645681802</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175398</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,10 +26790,10 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000394</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26805,7 +26805,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26814,16 +26814,16 @@
         <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>8.4473118155576e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,22 +26957,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241342</v>
+        <v>433.9106082241345</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26981,7 +26981,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.123455999609</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000393</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996083</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.123455999609</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,22 +27382,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>143.9585533378842</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,19 +27433,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>266.0234155810822</v>
       </c>
     </row>
     <row r="3">
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>128.0888458512258</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27546,10 +27546,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.62935658963934</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>147.2515091551288</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27591,16 +27591,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>34.44879168762554</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>295.8944743934619</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,19 +27667,19 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>77.47668300342995</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>94.54734948492421</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27859,7 +27859,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>340.9210675957759</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27868,7 +27868,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>53.35106510568374</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -28011,25 +28011,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>116.1419696710212</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>80.85095794181331</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28852,7 +28852,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-4.622602397465861e-14</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29560,7 +29560,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>-2.391392747851032e-13</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>-2.630135107066423e-13</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -30037,10 +30037,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U35" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>-7.73821785393001e-13</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31054,16 +31054,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31075,7 +31075,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31124,7 +31124,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31136,16 +31136,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31230,7 +31230,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31239,7 +31239,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181062</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336181</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491902</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857146</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767384</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730009</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342228</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166598</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190648</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147054</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235313</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745103</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744849</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380022</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436499</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575842</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.428935217844</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177247</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040591</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762075</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405677</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378628</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168763</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
         <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997904</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000178</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
         <v>0.1321789941675764</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.68437931365458</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231073</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335774</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0856174753788</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227909</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.755972606796</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154674</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169138</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097485</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759591</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.3541376752348</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069566</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024991</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>526.2989357561996</v>
+        <v>344.2757660550399</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,19 +32075,19 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>490.507583235568</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>193.1175412796309</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
@@ -32096,10 +32096,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>441.0292693655512</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>461.1007071927443</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422587</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>244.0266243181822</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862124</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071787</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>399.4395445221144</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,40 +32935,40 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
         <v>125.3175546292901</v>
@@ -32977,7 +32977,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33023,34 +33023,34 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473074</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>604.2458225991919</v>
+        <v>416.7024900153327</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796262</v>
@@ -33117,7 +33117,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
@@ -33129,7 +33129,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33172,40 +33172,40 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
         <v>125.3175546292901</v>
@@ -33214,7 +33214,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33257,37 +33257,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>538.5853835133116</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071787</v>
+        <v>320.9147064709962</v>
       </c>
       <c r="O30" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796262</v>
@@ -33354,7 +33354,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
@@ -33366,7 +33366,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33409,40 +33409,40 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
         <v>125.3175546292901</v>
@@ -33451,7 +33451,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33500,22 +33500,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>302.9675447508041</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.87657862147</v>
+        <v>165.2255134509763</v>
       </c>
       <c r="Q33" t="n">
         <v>375.5996128485291</v>
@@ -33524,7 +33524,7 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796262</v>
@@ -33591,7 +33591,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
@@ -33603,7 +33603,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33646,40 +33646,40 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.015579806721</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
         <v>125.3175546292901</v>
@@ -33688,7 +33688,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33734,34 +33734,34 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071787</v>
+        <v>251.8861049150245</v>
       </c>
       <c r="O36" t="n">
-        <v>500.4415752611927</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796262</v>
@@ -33828,7 +33828,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
@@ -33840,7 +33840,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33883,40 +33883,40 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175678</v>
+        <v>965.646344017567</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236488</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
         <v>125.3175546292901</v>
@@ -33925,7 +33925,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33971,34 +33971,34 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>477.8500485393205</v>
+        <v>423.9151577118737</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796262</v>
@@ -34065,7 +34065,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
@@ -34077,7 +34077,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663262</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>368.6279838366843</v>
+        <v>602.4605829984181</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162543</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422587</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>451.7125911569001</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071787</v>
+        <v>601.0567753070492</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34699,19 +34699,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34720,7 +34720,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,22 +34775,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>311.938592662178</v>
+        <v>367.7110102589294</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O3" t="n">
-        <v>640.5848321000389</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
@@ -34854,13 +34854,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34869,13 +34869,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35024,19 +35024,19 @@
         <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>615.5326193530509</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
-        <v>0.955613488306449</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225039</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.564649540734</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067511</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457281</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376319</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949731</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637953</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402559</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939918</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091754</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K9" t="n">
-        <v>186.587496243485</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>640.5848321000394</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820408</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928742</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961233</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235325</v>
+        <v>505.5216991696276</v>
       </c>
       <c r="Q9" t="n">
-        <v>303.0719207327568</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870601</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423492</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831071</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860246</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295071</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818073</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805412</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35489,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>394.9572236728663</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899065</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35723,19 +35723,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>351.9532034556938</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>61.77582919629761</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
@@ -35744,10 +35744,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396399</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>302.474889585677</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>318.5044627482999</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754089</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678997</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>101.8925903961639</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.567533492471</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.412613764194</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238455</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>265.4651371077842</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,31 +36589,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902405</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754089</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674332</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>472.9041105158586</v>
+        <v>285.3607779319995</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992801</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
         <v>264.332588409635</v>
@@ -36762,7 +36762,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
         <v>373.2618997060455</v>
@@ -36826,31 +36826,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902405</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>396.4513495912933</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238455</v>
+        <v>189.5729943876629</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
         <v>264.332588409635</v>
@@ -36999,7 +36999,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
         <v>373.2618997060455</v>
@@ -37063,31 +37063,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902405</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>160.8335108287857</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071398</v>
+        <v>31.25110603664601</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
         <v>264.332588409635</v>
@@ -37236,7 +37236,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
         <v>373.2618997060455</v>
@@ -37300,31 +37300,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236315111</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902405</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754089</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238455</v>
+        <v>120.5443928316912</v>
       </c>
       <c r="O36" t="n">
-        <v>357.8453308167483</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
         <v>264.332588409635</v>
@@ -37473,7 +37473,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
         <v>373.2618997060455</v>
@@ -37537,31 +37537,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N38" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683793</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902405</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754089</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>339.2956687594463</v>
+        <v>285.3607779319996</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992801</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
         <v>264.332588409635</v>
@@ -37710,7 +37710,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
         <v>373.2618997060455</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396399</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>237.286271753351</v>
+        <v>471.1188709150848</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146267</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678997</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>313.1582113770259</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238455</v>
+        <v>469.7150632237159</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
